--- a/correct.xlsx
+++ b/correct.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -81,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,6 +92,7 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Standaard" xfId="0"/>
@@ -98,7 +101,604 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Scatter Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5.2"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:srgbClr val="4076A9"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:solidFill>
+                  <a:srgbClr val="4076A9"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'gegevens'!$F$2:$F$101</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'gegevens'!$G$2:$G$101</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="31"/>
+          <min val="19"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>gewicht</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="140"/>
+          <min val="110"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>lengte</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Scatter Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5.2"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:srgbClr val="4076A9"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:solidFill>
+                  <a:srgbClr val="4076A9"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'gegevens'!$F$2:$F$101</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'gegevens'!$G$2:$G$101</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="31"/>
+          <min val="19"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>gewicht</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="140"/>
+          <min val="110"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>lengte</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Scatter Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5.2"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:srgbClr val="4076A9"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:solidFill>
+                  <a:srgbClr val="4076A9"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'gegevens'!$F$2:$F$101</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'gegevens'!$G$2:$G$101</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="31"/>
+          <min val="19"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>gewicht</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="140"/>
+          <min val="110"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>lengte</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>goals per position per birth cat</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'grafiek'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'grafiek'!$A$1:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'grafiek'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'grafiek'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'grafiek'!$A$1:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'grafiek'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'grafiek'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'grafiek'!$A$1:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'grafiek'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'grafiek'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'grafiek'!$A$1:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'grafiek'!$E$2:$E$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>position</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>goals</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
@@ -121,7 +721,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -141,6 +741,50 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -480,25 +1124,29 @@
       </c>
       <c r="D1" s="5" t="inlineStr">
         <is>
+          <t>geboortecategorie</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>inzet</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>gewicht</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>lengte</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
           <t>geboortedatum</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>inzet</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>gewicht</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>lengte</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -515,11 +1163,11 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -528,6 +1176,9 @@
       <c r="G2" t="n">
         <v>123</v>
       </c>
+      <c r="H2" s="6" t="n">
+        <v>40639</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,11 +1195,11 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -557,6 +1208,9 @@
       <c r="G3" t="n">
         <v>134</v>
       </c>
+      <c r="H3" s="6" t="n">
+        <v>40574</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -573,11 +1227,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -586,6 +1240,9 @@
       <c r="G4" t="n">
         <v>116</v>
       </c>
+      <c r="H4" s="6" t="n">
+        <v>40604</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,11 +1259,11 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -615,6 +1272,9 @@
       <c r="G5" t="n">
         <v>121</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>40883</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +1304,9 @@
       <c r="G6" t="n">
         <v>121</v>
       </c>
+      <c r="H6" s="6" t="n">
+        <v>40711</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -660,11 +1323,11 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -673,6 +1336,9 @@
       <c r="G7" t="n">
         <v>124</v>
       </c>
+      <c r="H7" s="6" t="n">
+        <v>40575</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -689,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -702,6 +1368,9 @@
       <c r="G8" t="n">
         <v>118</v>
       </c>
+      <c r="H8" s="6" t="n">
+        <v>40747</v>
+      </c>
       <c r="K8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -719,11 +1388,11 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -732,6 +1401,9 @@
       <c r="G9" t="n">
         <v>120</v>
       </c>
+      <c r="H9" s="6" t="n">
+        <v>40845</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -748,11 +1420,11 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -761,6 +1433,9 @@
       <c r="G10" t="n">
         <v>117</v>
       </c>
+      <c r="H10" s="6" t="n">
+        <v>40601</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -790,6 +1465,9 @@
       <c r="G11" t="n">
         <v>116</v>
       </c>
+      <c r="H11" s="6" t="n">
+        <v>40612</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -806,11 +1484,11 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -819,6 +1497,9 @@
       <c r="G12" t="n">
         <v>122</v>
       </c>
+      <c r="H12" s="6" t="n">
+        <v>40720</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -835,11 +1516,11 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -848,6 +1529,9 @@
       <c r="G13" t="n">
         <v>125</v>
       </c>
+      <c r="H13" s="6" t="n">
+        <v>40659</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -864,11 +1548,11 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -877,6 +1561,9 @@
       <c r="G14" t="n">
         <v>131</v>
       </c>
+      <c r="H14" s="6" t="n">
+        <v>40683</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -893,11 +1580,11 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -906,6 +1593,9 @@
       <c r="G15" t="n">
         <v>116</v>
       </c>
+      <c r="H15" s="6" t="n">
+        <v>40840</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -935,6 +1625,9 @@
       <c r="G16" t="n">
         <v>115</v>
       </c>
+      <c r="H16" s="6" t="n">
+        <v>40823</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -964,6 +1657,9 @@
       <c r="G17" t="n">
         <v>118</v>
       </c>
+      <c r="H17" s="6" t="n">
+        <v>40822</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -980,11 +1676,11 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -993,6 +1689,9 @@
       <c r="G18" t="n">
         <v>133</v>
       </c>
+      <c r="H18" s="6" t="n">
+        <v>40688</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1009,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1022,6 +1721,9 @@
       <c r="G19" t="n">
         <v>133</v>
       </c>
+      <c r="H19" s="6" t="n">
+        <v>40756</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1038,11 +1740,11 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1051,6 +1753,9 @@
       <c r="G20" t="n">
         <v>135</v>
       </c>
+      <c r="H20" s="6" t="n">
+        <v>40850</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1080,6 +1785,9 @@
       <c r="G21" t="n">
         <v>117</v>
       </c>
+      <c r="H21" s="6" t="n">
+        <v>40822</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1096,11 +1804,11 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1109,6 +1817,9 @@
       <c r="G22" t="n">
         <v>118</v>
       </c>
+      <c r="H22" s="6" t="n">
+        <v>40571</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1125,11 +1836,11 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1138,6 +1849,9 @@
       <c r="G23" t="n">
         <v>125</v>
       </c>
+      <c r="H23" s="6" t="n">
+        <v>40892</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1167,6 +1881,9 @@
       <c r="G24" t="n">
         <v>123</v>
       </c>
+      <c r="H24" s="6" t="n">
+        <v>40662</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1196,6 +1913,9 @@
       <c r="G25" t="n">
         <v>127</v>
       </c>
+      <c r="H25" s="6" t="n">
+        <v>40566</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1225,6 +1945,9 @@
       <c r="G26" t="n">
         <v>115</v>
       </c>
+      <c r="H26" s="6" t="n">
+        <v>40834</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1241,11 +1964,11 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1254,6 +1977,9 @@
       <c r="G27" t="n">
         <v>125</v>
       </c>
+      <c r="H27" s="6" t="n">
+        <v>40752</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1283,6 +2009,9 @@
       <c r="G28" t="n">
         <v>135</v>
       </c>
+      <c r="H28" s="6" t="n">
+        <v>40856</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1299,11 +2028,11 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1312,6 +2041,9 @@
       <c r="G29" t="n">
         <v>121</v>
       </c>
+      <c r="H29" s="6" t="n">
+        <v>40686</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1328,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1341,6 +2073,9 @@
       <c r="G30" t="n">
         <v>121</v>
       </c>
+      <c r="H30" s="6" t="n">
+        <v>40719</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1357,11 +2092,11 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1370,6 +2105,9 @@
       <c r="G31" t="n">
         <v>129</v>
       </c>
+      <c r="H31" s="6" t="n">
+        <v>40601</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1386,11 +2124,11 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1399,6 +2137,9 @@
       <c r="G32" t="n">
         <v>130</v>
       </c>
+      <c r="H32" s="6" t="n">
+        <v>40637</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1415,11 +2156,11 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1428,6 +2169,9 @@
       <c r="G33" t="n">
         <v>125</v>
       </c>
+      <c r="H33" s="6" t="n">
+        <v>40665</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1457,6 +2201,9 @@
       <c r="G34" t="n">
         <v>132</v>
       </c>
+      <c r="H34" s="6" t="n">
+        <v>40830</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1473,11 +2220,11 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1486,6 +2233,9 @@
       <c r="G35" t="n">
         <v>128</v>
       </c>
+      <c r="H35" s="6" t="n">
+        <v>40663</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1515,6 +2265,9 @@
       <c r="G36" t="n">
         <v>120</v>
       </c>
+      <c r="H36" s="6" t="n">
+        <v>40877</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1531,11 +2284,11 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1544,6 +2297,9 @@
       <c r="G37" t="n">
         <v>128</v>
       </c>
+      <c r="H37" s="6" t="n">
+        <v>40865</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1573,6 +2329,9 @@
       <c r="G38" t="n">
         <v>118</v>
       </c>
+      <c r="H38" s="6" t="n">
+        <v>40722</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1589,11 +2348,11 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1602,6 +2361,9 @@
       <c r="G39" t="n">
         <v>123</v>
       </c>
+      <c r="H39" s="6" t="n">
+        <v>40828</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1618,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1631,6 +2393,9 @@
       <c r="G40" t="n">
         <v>124</v>
       </c>
+      <c r="H40" s="6" t="n">
+        <v>40694</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1647,11 +2412,11 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1660,6 +2425,9 @@
       <c r="G41" t="n">
         <v>125</v>
       </c>
+      <c r="H41" s="6" t="n">
+        <v>40659</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1676,11 +2444,11 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1689,6 +2457,9 @@
       <c r="G42" t="n">
         <v>120</v>
       </c>
+      <c r="H42" s="6" t="n">
+        <v>40625</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1718,6 +2489,9 @@
       <c r="G43" t="n">
         <v>120</v>
       </c>
+      <c r="H43" s="6" t="n">
+        <v>40601</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1734,11 +2508,11 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1747,6 +2521,9 @@
       <c r="G44" t="n">
         <v>127</v>
       </c>
+      <c r="H44" s="6" t="n">
+        <v>40832</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1763,11 +2540,11 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1776,6 +2553,9 @@
       <c r="G45" t="n">
         <v>129</v>
       </c>
+      <c r="H45" s="6" t="n">
+        <v>40883</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1792,11 +2572,11 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1805,6 +2585,9 @@
       <c r="G46" t="n">
         <v>118</v>
       </c>
+      <c r="H46" s="6" t="n">
+        <v>40874</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1821,11 +2604,11 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1834,6 +2617,9 @@
       <c r="G47" t="n">
         <v>116</v>
       </c>
+      <c r="H47" s="6" t="n">
+        <v>40870</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1850,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1863,6 +2649,9 @@
       <c r="G48" t="n">
         <v>116</v>
       </c>
+      <c r="H48" s="6" t="n">
+        <v>40793</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1879,11 +2668,11 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1892,6 +2681,9 @@
       <c r="G49" t="n">
         <v>121</v>
       </c>
+      <c r="H49" s="6" t="n">
+        <v>40737</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1921,6 +2713,9 @@
       <c r="G50" t="n">
         <v>125</v>
       </c>
+      <c r="H50" s="6" t="n">
+        <v>40549</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1937,11 +2732,11 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1950,6 +2745,9 @@
       <c r="G51" t="n">
         <v>122</v>
       </c>
+      <c r="H51" s="6" t="n">
+        <v>40670</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1966,11 +2764,11 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -1979,6 +2777,9 @@
       <c r="G52" t="n">
         <v>116</v>
       </c>
+      <c r="H52" s="6" t="n">
+        <v>40713</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1995,11 +2796,11 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2008,6 +2809,9 @@
       <c r="G53" t="n">
         <v>135</v>
       </c>
+      <c r="H53" s="6" t="n">
+        <v>40553</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2024,11 +2828,11 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2037,6 +2841,9 @@
       <c r="G54" t="n">
         <v>119</v>
       </c>
+      <c r="H54" s="6" t="n">
+        <v>40871</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2053,11 +2860,11 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2066,6 +2873,9 @@
       <c r="G55" t="n">
         <v>121</v>
       </c>
+      <c r="H55" s="6" t="n">
+        <v>40669</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2095,6 +2905,9 @@
       <c r="G56" t="n">
         <v>122</v>
       </c>
+      <c r="H56" s="6" t="n">
+        <v>40669</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2111,11 +2924,11 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2124,6 +2937,9 @@
       <c r="G57" t="n">
         <v>118</v>
       </c>
+      <c r="H57" s="6" t="n">
+        <v>40847</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2140,11 +2956,11 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2153,6 +2969,9 @@
       <c r="G58" t="n">
         <v>131</v>
       </c>
+      <c r="H58" s="6" t="n">
+        <v>40784</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2169,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2182,6 +3001,9 @@
       <c r="G59" t="n">
         <v>120</v>
       </c>
+      <c r="H59" s="6" t="n">
+        <v>40679</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2198,11 +3020,11 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2211,6 +3033,9 @@
       <c r="G60" t="n">
         <v>135</v>
       </c>
+      <c r="H60" s="6" t="n">
+        <v>40577</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2227,11 +3052,11 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2240,6 +3065,9 @@
       <c r="G61" t="n">
         <v>130</v>
       </c>
+      <c r="H61" s="6" t="n">
+        <v>40747</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2256,11 +3084,11 @@
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2269,6 +3097,9 @@
       <c r="G62" t="n">
         <v>133</v>
       </c>
+      <c r="H62" s="6" t="n">
+        <v>40643</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2285,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2298,6 +3129,9 @@
       <c r="G63" t="n">
         <v>117</v>
       </c>
+      <c r="H63" s="6" t="n">
+        <v>40687</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2314,11 +3148,11 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2327,6 +3161,9 @@
       <c r="G64" t="n">
         <v>120</v>
       </c>
+      <c r="H64" s="6" t="n">
+        <v>40568</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2343,11 +3180,11 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2356,6 +3193,9 @@
       <c r="G65" t="n">
         <v>122</v>
       </c>
+      <c r="H65" s="6" t="n">
+        <v>40630</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2372,11 +3212,11 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2385,6 +3225,9 @@
       <c r="G66" t="n">
         <v>124</v>
       </c>
+      <c r="H66" s="6" t="n">
+        <v>40640</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2401,11 +3244,11 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2414,6 +3257,9 @@
       <c r="G67" t="n">
         <v>120</v>
       </c>
+      <c r="H67" s="6" t="n">
+        <v>40794</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2430,11 +3276,11 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2443,6 +3289,9 @@
       <c r="G68" t="n">
         <v>120</v>
       </c>
+      <c r="H68" s="6" t="n">
+        <v>40834</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2459,11 +3308,11 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2472,6 +3321,9 @@
       <c r="G69" t="n">
         <v>126</v>
       </c>
+      <c r="H69" s="6" t="n">
+        <v>40830</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2488,11 +3340,11 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2501,6 +3353,9 @@
       <c r="G70" t="n">
         <v>122</v>
       </c>
+      <c r="H70" s="6" t="n">
+        <v>40653</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2530,6 +3385,9 @@
       <c r="G71" t="n">
         <v>120</v>
       </c>
+      <c r="H71" s="6" t="n">
+        <v>40622</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2546,11 +3404,11 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2559,6 +3417,9 @@
       <c r="G72" t="n">
         <v>123</v>
       </c>
+      <c r="H72" s="6" t="n">
+        <v>40873</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2588,6 +3449,9 @@
       <c r="G73" t="n">
         <v>135</v>
       </c>
+      <c r="H73" s="6" t="n">
+        <v>40753</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2604,11 +3468,11 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2617,6 +3481,9 @@
       <c r="G74" t="n">
         <v>125</v>
       </c>
+      <c r="H74" s="6" t="n">
+        <v>40693</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2633,11 +3500,11 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2646,6 +3513,9 @@
       <c r="G75" t="n">
         <v>119</v>
       </c>
+      <c r="H75" s="6" t="n">
+        <v>40576</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2675,6 +3545,9 @@
       <c r="G76" t="n">
         <v>115</v>
       </c>
+      <c r="H76" s="6" t="n">
+        <v>40829</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2691,11 +3564,11 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2704,6 +3577,9 @@
       <c r="G77" t="n">
         <v>134</v>
       </c>
+      <c r="H77" s="6" t="n">
+        <v>40866</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2720,11 +3596,11 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -2733,6 +3609,9 @@
       <c r="G78" t="n">
         <v>118</v>
       </c>
+      <c r="H78" s="6" t="n">
+        <v>40601</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2762,6 +3641,9 @@
       <c r="G79" t="n">
         <v>119</v>
       </c>
+      <c r="H79" s="6" t="n">
+        <v>40730</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2778,11 +3660,11 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -2791,6 +3673,9 @@
       <c r="G80" t="n">
         <v>120</v>
       </c>
+      <c r="H80" s="6" t="n">
+        <v>40886</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2807,11 +3692,11 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2820,6 +3705,9 @@
       <c r="G81" t="n">
         <v>128</v>
       </c>
+      <c r="H81" s="6" t="n">
+        <v>40572</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2849,6 +3737,9 @@
       <c r="G82" t="n">
         <v>130</v>
       </c>
+      <c r="H82" s="6" t="n">
+        <v>40641</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2865,11 +3756,11 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -2878,6 +3769,9 @@
       <c r="G83" t="n">
         <v>131</v>
       </c>
+      <c r="H83" s="6" t="n">
+        <v>40613</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2894,11 +3788,11 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2907,6 +3801,9 @@
       <c r="G84" t="n">
         <v>118</v>
       </c>
+      <c r="H84" s="6" t="n">
+        <v>40757</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2923,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2936,6 +3833,9 @@
       <c r="G85" t="n">
         <v>127</v>
       </c>
+      <c r="H85" s="6" t="n">
+        <v>40783</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2965,6 +3865,9 @@
       <c r="G86" t="n">
         <v>135</v>
       </c>
+      <c r="H86" s="6" t="n">
+        <v>40596</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2994,6 +3897,9 @@
       <c r="G87" t="n">
         <v>116</v>
       </c>
+      <c r="H87" s="6" t="n">
+        <v>40688</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3010,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3023,6 +3929,9 @@
       <c r="G88" t="n">
         <v>119</v>
       </c>
+      <c r="H88" s="6" t="n">
+        <v>40807</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3039,11 +3948,11 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3052,6 +3961,9 @@
       <c r="G89" t="n">
         <v>130</v>
       </c>
+      <c r="H89" s="6" t="n">
+        <v>40851</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3081,6 +3993,9 @@
       <c r="G90" t="n">
         <v>122</v>
       </c>
+      <c r="H90" s="6" t="n">
+        <v>40802</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3110,6 +4025,9 @@
       <c r="G91" t="n">
         <v>121</v>
       </c>
+      <c r="H91" s="6" t="n">
+        <v>40576</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3126,11 +4044,11 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3139,6 +4057,9 @@
       <c r="G92" t="n">
         <v>117</v>
       </c>
+      <c r="H92" s="6" t="n">
+        <v>40575</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3155,11 +4076,11 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3168,6 +4089,9 @@
       <c r="G93" t="n">
         <v>123</v>
       </c>
+      <c r="H93" s="6" t="n">
+        <v>40744</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3197,6 +4121,9 @@
       <c r="G94" t="n">
         <v>118</v>
       </c>
+      <c r="H94" s="6" t="n">
+        <v>40899</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3226,6 +4153,9 @@
       <c r="G95" t="n">
         <v>127</v>
       </c>
+      <c r="H95" s="6" t="n">
+        <v>40715</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3242,11 +4172,11 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3255,6 +4185,9 @@
       <c r="G96" t="n">
         <v>135</v>
       </c>
+      <c r="H96" s="6" t="n">
+        <v>40703</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3271,11 +4204,11 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -3284,6 +4217,9 @@
       <c r="G97" t="n">
         <v>134</v>
       </c>
+      <c r="H97" s="6" t="n">
+        <v>40632</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3300,11 +4236,11 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3313,6 +4249,9 @@
       <c r="G98" t="n">
         <v>125</v>
       </c>
+      <c r="H98" s="6" t="n">
+        <v>40844</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3329,11 +4268,11 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3342,6 +4281,9 @@
       <c r="G99" t="n">
         <v>123</v>
       </c>
+      <c r="H99" s="6" t="n">
+        <v>40816</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3358,11 +4300,11 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3371,6 +4313,9 @@
       <c r="G100" t="n">
         <v>127</v>
       </c>
+      <c r="H100" s="6" t="n">
+        <v>40820</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3387,7 +4332,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3399,11 +4344,15 @@
       </c>
       <c r="G101" t="n">
         <v>131</v>
+      </c>
+      <c r="H101" s="6" t="n">
+        <v>40748</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3413,14 +4362,124 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>staart</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>linkervleuger</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rechtervleuger</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>piloot</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>keeper</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
